--- a/raw/Language_parameters.xlsx
+++ b/raw/Language_parameters.xlsx
@@ -9,24 +9,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>Language_parameter_ID</t>
+  </si>
+  <si>
+    <t>Language_parameter_name</t>
+  </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Language_parameter_ID</t>
-  </si>
-  <si>
-    <t>Language_parameter_name</t>
-  </si>
-  <si>
-    <t>'give'</t>
-  </si>
-  <si>
-    <t>'sell'</t>
-  </si>
-  <si>
-    <t>dominant ditransitive construction</t>
+    <t>Clause-level word order</t>
+  </si>
+  <si>
+    <t>SVO, SOV, etc.</t>
+  </si>
+  <si>
+    <t>‘bring’</t>
+  </si>
+  <si>
+    <t>‘give’</t>
+  </si>
+  <si>
+    <t>‘sell’</t>
+  </si>
+  <si>
+    <t>‘show’</t>
+  </si>
+  <si>
+    <t>‘teach’</t>
+  </si>
+  <si>
+    <t>‘tell’</t>
+  </si>
+  <si>
+    <t>‘feed’</t>
+  </si>
+  <si>
+    <t>‘send’</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Number of speakers</t>
+  </si>
+  <si>
+    <t>Preservation (“endangerment“)</t>
+  </si>
+  <si>
+    <t>Genealogical affiliation</t>
+  </si>
+  <si>
+    <t>Basis of description</t>
+  </si>
+  <si>
+    <t>Vowel chart</t>
+  </si>
+  <si>
+    <t>Consonant chart</t>
+  </si>
+  <si>
+    <t>Independent pronoun chart</t>
+  </si>
+  <si>
+    <t>Phonology coverage</t>
+  </si>
+  <si>
+    <t>NP syntax coverage</t>
+  </si>
+  <si>
+    <t>Adjective coverage</t>
+  </si>
+  <si>
+    <t>Tense and aspect coverage</t>
+  </si>
+  <si>
+    <t>Complex sentence coverage</t>
+  </si>
+  <si>
+    <t>Texts</t>
+  </si>
+  <si>
+    <t>Adjective comparison (inequality and equality)</t>
+  </si>
+  <si>
+    <t>Status / distribution</t>
+  </si>
+  <si>
+    <t>Dialectal differentiation</t>
+  </si>
+  <si>
+    <t>Glossary</t>
+  </si>
+  <si>
+    <t>(Structured) semantic fields</t>
+  </si>
+  <si>
+    <t>monotransitive order</t>
   </si>
 </sst>
 </file>
@@ -37,7 +118,7 @@
     <numFmt formatCode="@" numFmtId="165"/>
     <numFmt formatCode="mm/dd/yyyy" numFmtId="166"/>
     <numFmt formatCode="[hh]:mm:ss" numFmtId="167"/>
-    <numFmt formatCode="@" numFmtId="168"/>
+    <numFmt formatCode="@" numFmtId="169"/>
     <numFmt formatCode="@" numFmtId="170"/>
   </numFmts>
   <fonts count="2">
@@ -89,10 +170,10 @@
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0">
       <alignment horizontal="general" vertical="top"/>
     </xf>
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="170" xfId="0">
@@ -118,27 +199,243 @@
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="7">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="7">
         <v>3</v>
       </c>
       <c r="C2" t="s" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="7">
+      <c r="B4" t="s" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="7">
-        <v>44822668972</v>
-      </c>
-      <c r="C4" t="s" s="8">
+      <c r="B5" t="s" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6">
         <v>5</v>
+      </c>
+      <c r="B6" t="s" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6">
+        <v>20742419425</v>
+      </c>
+      <c r="B31" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/raw/Language_parameters.xlsx
+++ b/raw/Language_parameters.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Language_parameter_ID</t>
   </si>
@@ -18,12 +18,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>'give'</t>
-  </si>
-  <si>
-    <t>'sell'</t>
   </si>
   <si>
     <t>dominant ditransitive construction</t>
@@ -119,28 +113,12 @@
     </row>
     <row r="2">
       <c r="A2" s="6">
-        <v>3</v>
+        <v>44822668972</v>
       </c>
       <c r="B2" t="s" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="6">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6">
-        <v>44822668972</v>
-      </c>
-      <c r="B4" t="s" s="7">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/raw/Language_parameters.xlsx
+++ b/raw/Language_parameters.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Language_parameter_ID</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>dominant ditransitive construction</t>
+  </si>
+  <si>
+    <t>Which is the dominent alignment type?</t>
   </si>
 </sst>
 </file>
@@ -118,6 +121,9 @@
       <c r="B2" t="s" s="7">
         <v>3</v>
       </c>
+      <c r="C2" t="s" s="8">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/raw/Language_parameters.xlsx
+++ b/raw/Language_parameters.xlsx
@@ -23,7 +23,7 @@
     <t>dominant ditransitive construction</t>
   </si>
   <si>
-    <t>Which is the dominent alignment type?</t>
+    <t>Which is the dominant alignment type?</t>
   </si>
 </sst>
 </file>
